--- a/www.eia.gov/electricity/monthly/xls/table_1_06_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_06_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Table 1.6.A. Utility Scale Facility Net Generation from Petroleum Coke</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -1661,7 +1661,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>25</v>
@@ -1688,21 +1688,21 @@
         <v>25</v>
       </c>
       <c r="L14" s="10">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="13">
-        <v>7</v>
-      </c>
-      <c r="D15" s="14">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1722,11 +1722,11 @@
       <c r="J15" s="13">
         <v>0</v>
       </c>
-      <c r="K15" s="13">
-        <v>0</v>
+      <c r="K15" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L15" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>25</v>
@@ -1802,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,25 +1810,25 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C18" s="10">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="D18" s="11">
-        <v>6.7000000000000004E-2</v>
+        <v>-0.57499999999999996</v>
       </c>
       <c r="E18" s="10">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="10">
-        <v>29</v>
+        <v>196</v>
       </c>
       <c r="G18" s="10">
+        <v>76</v>
+      </c>
+      <c r="H18" s="10">
         <v>100</v>
-      </c>
-      <c r="H18" s="10">
-        <v>107</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="L18" s="10">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="13">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D20" s="14">
         <v>-1</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D21" s="14">
-        <v>0.35799999999999998</v>
+        <v>0.91</v>
       </c>
       <c r="E21" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -1962,13 +1962,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C22" s="13">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D22" s="14">
-        <v>-0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="H22" s="13">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -2000,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="13">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D23" s="14">
-        <v>3.1040000000000001</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="E23" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="13">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>25</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="J24" s="10">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>25</v>
       </c>
       <c r="L24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>25</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="J25" s="13">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="L25" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2342,19 +2342,19 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C32" s="10">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D32" s="11">
-        <v>-0.307</v>
+        <v>-0.61099999999999999</v>
       </c>
       <c r="E32" s="10">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F32" s="10">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G32" s="10">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L32" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2456,19 +2456,19 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="D35" s="14">
-        <v>-0.29199999999999998</v>
+        <v>-0.628</v>
       </c>
       <c r="E35" s="13">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F35" s="13">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="G35" s="13">
         <v>0</v>
@@ -2494,13 +2494,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D36" s="14">
-        <v>-0.47799999999999998</v>
+        <v>-0.495</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L36" s="13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,19 +2722,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C42" s="10">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D42" s="11">
-        <v>0.55300000000000005</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E42" s="10">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F42" s="10">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G42" s="10">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C44" s="13">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D44" s="14">
-        <v>0.55300000000000005</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F44" s="13">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2912,19 +2912,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>218</v>
+        <v>461</v>
       </c>
       <c r="C47" s="10">
-        <v>420</v>
+        <v>151</v>
       </c>
       <c r="D47" s="11">
-        <v>-0.47899999999999998</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="E47" s="10">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="F47" s="10">
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="G47" s="10">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="L47" s="10">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,19 +2988,19 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>210</v>
+        <v>452</v>
       </c>
       <c r="C49" s="13">
-        <v>410</v>
+        <v>141</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.48699999999999999</v>
+        <v>2.214</v>
       </c>
       <c r="E49" s="13">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="F49" s="13">
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="G49" s="13">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>25</v>
       </c>
       <c r="L49" s="13">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,13 +3102,13 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D52" s="11">
-        <v>-3.5000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E52" s="10">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3254,13 +3254,13 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="13">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D56" s="14">
-        <v>-3.5000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" s="13">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>611</v>
+        <v>781</v>
       </c>
       <c r="C68" s="10">
-        <v>827</v>
+        <v>715</v>
       </c>
       <c r="D68" s="11">
-        <v>-0.26100000000000001</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E68" s="10">
-        <v>418</v>
+        <v>596</v>
       </c>
       <c r="F68" s="10">
-        <v>610</v>
+        <v>490</v>
       </c>
       <c r="G68" s="10">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="H68" s="10">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I68" s="10">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="J68" s="10">
         <v>1</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>25</v>
+      <c r="K68" s="10">
+        <v>69</v>
       </c>
       <c r="L68" s="10">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
